--- a/数据整理/stocks/A股/深证主板/002624-完美世界.xlsx
+++ b/数据整理/stocks/A股/深证主板/002624-完美世界.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5986,7 +5987,6 @@
           <t>新疆前海联合泳隽灵活配置混合C</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>88.55</t>
@@ -6018,7 +6018,6 @@
           <t>工银瑞信中证传媒指数（LOF）C</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>94.11</t>
@@ -6050,7 +6049,6 @@
           <t>九泰天宝灵活配置混合C</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
           <t>68.13</t>
@@ -6066,6 +6064,3858 @@
       </c>
       <c r="H52" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2824</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1485</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9126</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3608</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2313</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1478</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1231</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0720</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9127</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8855</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7958</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7648</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7544</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7108</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>46.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4783</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4673</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4281</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>167301</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>方正富邦中证保险主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3922</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3337</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3129</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2986</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2797</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2687</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2004</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>65.29</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>56.26</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009164</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>48.72</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009165</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004436</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>46.66</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>004437</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002624-完美世界.xlsx
+++ b/数据整理/stocks/A股/深证主板/002624-完美世界.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9921,4 +9922,1846 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3646</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8647</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7948</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7088</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6946</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5279</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4213</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3015</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2753</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>65.03</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>65.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>66.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002624-完美世界.xlsx
+++ b/数据整理/stocks/A股/深证主板/002624-完美世界.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11764,4 +11765,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>95</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002624-完美世界.xlsx
+++ b/数据整理/stocks/A股/深证主板/002624-完美世界.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11773,7 +11774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11784,17 +11785,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11804,14 +11825,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.59</v>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8624</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -11820,14 +11863,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.89</v>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2005</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -11836,14 +11901,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>51</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.52</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8620</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -11852,13 +11939,2469 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4500</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0330</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6225</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6086</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5797</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5427</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5002</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4971</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4415</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4200</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4181</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4083</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3915</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3750</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3695</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3462</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3180</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2937</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005671</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1787</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160613</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华盛世创新混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>68.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011801</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>69.71</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>501039</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>501040</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005672</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>新疆前海联合研究优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>73.29</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011802</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>95</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002624-完美世界.xlsx
+++ b/数据整理/stocks/A股/深证主板/002624-完美世界.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14300,7 +14301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14311,17 +14312,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14331,14 +14352,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>65</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.44</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4115</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -14347,14 +14390,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>47</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.59</v>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5820</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -14363,14 +14428,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.89</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4073</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -14379,14 +14466,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>51</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.52</v>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3470</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -14395,13 +14504,699 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2830</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2533</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>51</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>95</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002624-完美世界.xlsx
+++ b/数据整理/stocks/A股/深证主板/002624-完美世界.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15079,7 +15080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15090,17 +15091,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15110,14 +15131,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.12</v>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0905</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -15126,14 +15169,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>65</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.44</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5884</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -15142,14 +15207,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>47</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.59</v>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4718</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -15158,14 +15245,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26.89</v>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4452</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -15174,14 +15283,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>51</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15.52</v>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4098</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -15190,13 +15321,979 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014179</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014180</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>51</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>95</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002624-完美世界.xlsx
+++ b/数据整理/stocks/A股/深证主板/002624-完美世界.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>5.59</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>4.12</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>21.44</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>12.59</v>
+        <v>21.44</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>26.89</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>15.52</v>
+        <v>26.89</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>51</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15.52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>95</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>31</v>
       </c>
     </row>
@@ -600,6 +617,1388 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0142</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6020</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3853</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3489</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2718</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014179</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>517500</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159728</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方国证在线消费ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>517770</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深游戏及文化传媒ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015675</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014180</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013017</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长江双盈6个月持有期债券A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013018</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长江双盈6个月持有期债券C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015356</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1679,7 +3078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2457,7 +3856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4983,7 +6382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6825,7 +8224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10677,7 +12076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12650,7 +14049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002624-完美世界.xlsx
+++ b/数据整理/stocks/A股/深证主板/002624-完美世界.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>4.75</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>5.59</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>4.12</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>21.44</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n">
-        <v>12.59</v>
+        <v>21.44</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="D7" t="n">
-        <v>26.89</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>15.52</v>
+        <v>26.89</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,3682 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>51</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15.52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>95</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1753</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0438</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7085</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5964</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4162</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2682</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2498</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0279</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0183</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9837</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9030</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8386</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8184</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6500</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>34.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5678</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4866</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4602</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4208</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4032</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3979</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3854</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3836</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>70.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3461</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009843</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中金泰顺12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>61.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3062</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2749</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2652</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2641</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2634</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2610</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2597</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2597</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>56.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2210</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.39</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>27.14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002833</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>42.76</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>44.60</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009164</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001573</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方互联网+灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004397</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长盛信息安全量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001663</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中银互联网+股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009165</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>168108</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>九泰锐诚灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002924</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华商瑞鑫定期开放债券</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002474</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中邮睿信增强债券</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002834</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>42.76</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>68.92</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +4286,974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7488</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5807</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3941</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3535</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160629</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>164818</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159805</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>517500</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>517770</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深游戏及文化传媒ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010677</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159728</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方国证在线消费ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015675</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证传媒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>516190</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏中证文娱传媒ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1998,7 +6635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3078,7 +7715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3856,7 +8493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6382,7 +11019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8224,7 +12861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12076,7 +16713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14047,3656 +18684,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H96"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008934</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成科技消费股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>60.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>70.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.0064</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000577</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>安信价值精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>38.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.68</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.1753</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009362</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商丰盈积极配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>63.87</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.0438</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008954</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>安信价值回报三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>37.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.7085</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>512980</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发中证传媒ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>25.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.5964</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>240001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝宝康消费品混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>16.78</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>74.57</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.4162</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001118</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝事件驱动混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>13.86</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.69</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.2682</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>090003</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成蓝筹稳健混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>27.17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.2498</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001178</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源再融资主题精选股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>27.78</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>80.64</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.0279</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>470028</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富社会责任混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>19.36</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.0183</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160918</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成中小盘混合(LOF)A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>16.73</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.9837</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008919</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>永赢科技驱动混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>18.97</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.9030</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009984</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华启航两年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>16.54</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>78.21</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.8386</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>090004</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成精选增值混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>15.47</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>86.71</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.8184</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519017</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成积极成长混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>13.32</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>87.07</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.6500</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>970010</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>方正证券金立方一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>34.41</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>79.98</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.5678</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>920003</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中金新锐股票A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>11.11</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.4866</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>160629</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>鹏华中证传媒指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.4602</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>970009</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>方正证券金立方一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>25.50</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>79.98</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.4208</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>952035</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>国泰君安君得诚混合型集合资产管理计划</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>12.60</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>82.90</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.4032</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>000974</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>安信消费医药主题股票</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.3979</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008274</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>大成行业先锋混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.3854</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>240004</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华宝动力组合混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>9.09</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>88.16</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.3836</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>008935</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>大成科技消费股票C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>70.68</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.3461</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009843</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中金泰顺12个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>10.67</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>61.34</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.3062</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>163807</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中银优选混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>7.81</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>79.07</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2749</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001144</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>大成互联网思维混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>90.28</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.2652</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>673110</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>西部利得新润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>82.43</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.2641</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009363</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>招商丰盈积极配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.2634</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>163823</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中银稳健策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>9.85</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>34.36</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.2610</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009217</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>89.04</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.2597</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>009218</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>89.04</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.2597</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>006775</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>前海开源优质成长混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>56.08</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.2430</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>001541</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>汇添富民营新动力股票</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>90.56</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.2210</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>008773</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>中银景泰回报混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>12.53</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>22.05</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.2193</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>005274</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>中银景福回报混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>11.16</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>25.51</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1830</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>004693</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳隽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>79.21</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1799</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>002945</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>大成盛世精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.1625</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>519673</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>银河康乐股票</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>82.21</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.1561</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>159805</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>鹏华中证传媒ETF</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>95.42</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.1494</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>008134</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>鹏华优选价值股票</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>95.39</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.1487</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>006952</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>中银景元回报混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>27.14</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.1335</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>050007</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>博时平衡配置混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>58.77</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.1294</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>050012</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>博时策略混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>77.18</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.1264</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>002252</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>融通成长30灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.1225</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>003397</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>银华体育文化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>79.79</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.1175</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>000551</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>信诚幸福消费混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>87.86</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.1102</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>161030</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>富国中证体育产业指数</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.1067</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>007318</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>中银民丰回报混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>23.70</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.1012</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>001223</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>鹏华文化传媒娱乐股票</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>83.23</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0950</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>002833</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>华夏新锦绣灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>42.76</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0930</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>002535</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>中银鑫利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>24.62</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0911</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>673010</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>西部利得新动向混合</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>67.50</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0881</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>前海开源恒远灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>44.60</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0847</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>005825</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>申万菱信智能驱动股票</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>89.08</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0806</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>920923</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>中金新锐股票C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0784</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>002288</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>中银稳进策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0778</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>002152</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>华宝核心优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>89.41</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>8.88</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0737</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>009164</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>中加聚庆六个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0633</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>003582</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>中金量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>75.96</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0613</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>005489</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>中金衡优灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>21.53</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0592</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>005933</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>80.27</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0591</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>519198</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>万家颐和灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>91.01</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0555</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>005775</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0525</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>008275</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>大成行业先锋混合C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0435</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>005444</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>51.25</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0413</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>000432</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>中银优秀企业混合</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>89.99</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0395</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>161036</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>富国中证娱乐主题指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0395</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>001573</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>南方互联网+灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>87.89</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0384</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>004397</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>长盛信息安全量化策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>21.83</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0378</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>002666</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>43.11</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0365</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>164818</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>工银瑞信中证传媒指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0350</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>001663</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>中银互联网+股票</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>85.31</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0329</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>673141</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>西部利得景程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>68.92</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0318</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>009165</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>中加聚庆六个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>0.0310</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>002536</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>中银鑫利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>24.62</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0.0296</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>005585</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>69.68</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>001628</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>招商体育文化休闲股票</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0.0226</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>001830</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>融通跨界成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>168108</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>九泰锐诚灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>81.97</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>008050</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>同泰慧择混合A</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>008920</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>永赢科技驱动混合C</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>005490</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>中金衡优灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>21.53</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>002924</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>华商瑞鑫定期开放债券</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>20.07</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>005776</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>80.32</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>005934</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>80.27</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>008051</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>同泰慧择混合C</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>002667</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>43.11</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>010667</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>安信价值回报三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>010677</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>工银瑞信中证传媒指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>011159</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>大成中小盘混合(LOF)C</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>002474</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>中邮睿信增强债券</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>27.39</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>20.06</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>002834</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>华夏新锦绣灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>42.76</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G94" t="n">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>007042</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳隽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>79.21</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G95" t="n">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>673143</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>西部利得景程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>68.92</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>